--- a/data/pca/factorExposure/factorExposure_2010-05-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-05-19.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01610410602612881</v>
+        <v>-0.01729290385172785</v>
       </c>
       <c r="C2">
-        <v>0.0005694303334581922</v>
+        <v>0.00100887987601782</v>
       </c>
       <c r="D2">
-        <v>0.0182257573426565</v>
+        <v>0.00920555440941722</v>
       </c>
       <c r="E2">
-        <v>0.02182658567799019</v>
+        <v>0.0001792356522515117</v>
       </c>
       <c r="F2">
-        <v>0.01333532081878032</v>
+        <v>0.01256556537521157</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1214971777423249</v>
+        <v>-0.09418991995845734</v>
       </c>
       <c r="C4">
-        <v>0.1046123908016242</v>
+        <v>0.01737544304057475</v>
       </c>
       <c r="D4">
-        <v>-0.01677180244491594</v>
+        <v>0.08251926955504364</v>
       </c>
       <c r="E4">
-        <v>0.01561878861965355</v>
+        <v>-0.02970143437859076</v>
       </c>
       <c r="F4">
-        <v>0.02267650425598946</v>
+        <v>-0.03301425302438156</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1306670215010332</v>
+        <v>-0.1524401549129102</v>
       </c>
       <c r="C6">
-        <v>0.06294449869754096</v>
+        <v>0.02465859051441927</v>
       </c>
       <c r="D6">
-        <v>0.00116410707281678</v>
+        <v>-0.02313598721715186</v>
       </c>
       <c r="E6">
-        <v>-0.03623442252785471</v>
+        <v>-0.009105530902738834</v>
       </c>
       <c r="F6">
-        <v>0.01979607043054081</v>
+        <v>-0.0408516265673115</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06710875907726729</v>
+        <v>-0.06118647125352313</v>
       </c>
       <c r="C7">
-        <v>0.06880865341924626</v>
+        <v>-0.0001707656581418281</v>
       </c>
       <c r="D7">
-        <v>0.006572923861975513</v>
+        <v>0.05191339863899121</v>
       </c>
       <c r="E7">
-        <v>0.02713296925254013</v>
+        <v>-0.01644009810916429</v>
       </c>
       <c r="F7">
-        <v>0.008447665819685136</v>
+        <v>-0.0539994369097473</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.04430326204167859</v>
+        <v>-0.05911147526058431</v>
       </c>
       <c r="C8">
-        <v>0.040476955753371</v>
+        <v>-0.01285250134807795</v>
       </c>
       <c r="D8">
-        <v>0.003659711164451571</v>
+        <v>0.03036657588795534</v>
       </c>
       <c r="E8">
-        <v>-0.02878482137062597</v>
+        <v>-0.01413148790094496</v>
       </c>
       <c r="F8">
-        <v>0.0124812959247437</v>
+        <v>0.02907806962843387</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.0861714060636794</v>
+        <v>-0.07208545117040727</v>
       </c>
       <c r="C9">
-        <v>0.07932375547502624</v>
+        <v>0.01362496023742494</v>
       </c>
       <c r="D9">
-        <v>-0.02598278765767856</v>
+        <v>0.0821629993308257</v>
       </c>
       <c r="E9">
-        <v>0.0104638908063748</v>
+        <v>-0.0254204075106953</v>
       </c>
       <c r="F9">
-        <v>0.007804647790807468</v>
+        <v>-0.05544140268158291</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1317997055518993</v>
+        <v>-0.09371579983161318</v>
       </c>
       <c r="C10">
-        <v>-0.1626306860169198</v>
+        <v>0.01593762869068588</v>
       </c>
       <c r="D10">
-        <v>0.02458460927379919</v>
+        <v>-0.1710113535294758</v>
       </c>
       <c r="E10">
-        <v>0.0310277940630884</v>
+        <v>0.03614916523803646</v>
       </c>
       <c r="F10">
-        <v>0.02231369104948428</v>
+        <v>0.05245378716307331</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.07228640326616263</v>
+        <v>-0.08811172147187432</v>
       </c>
       <c r="C11">
-        <v>0.07355695861556638</v>
+        <v>0.01286838763601104</v>
       </c>
       <c r="D11">
-        <v>-0.03164990490619284</v>
+        <v>0.1129832483525942</v>
       </c>
       <c r="E11">
-        <v>-0.007039538560829213</v>
+        <v>-0.04648976641306261</v>
       </c>
       <c r="F11">
-        <v>-0.002139140465579263</v>
+        <v>-0.02353077162298774</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.06640347432785378</v>
+        <v>-0.09338894503111658</v>
       </c>
       <c r="C12">
-        <v>0.07612256785801802</v>
+        <v>0.01086019542680668</v>
       </c>
       <c r="D12">
-        <v>-0.04676458424146315</v>
+        <v>0.12058746894875</v>
       </c>
       <c r="E12">
-        <v>0.02518427279460984</v>
+        <v>-0.04591846647529284</v>
       </c>
       <c r="F12">
-        <v>-0.03291633120967339</v>
+        <v>-0.02462082232602054</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.03752166089422509</v>
+        <v>-0.04412717156712367</v>
       </c>
       <c r="C13">
-        <v>0.04324954265202714</v>
+        <v>0.004522545730075671</v>
       </c>
       <c r="D13">
-        <v>0.01843549598578985</v>
+        <v>0.0461052322685809</v>
       </c>
       <c r="E13">
-        <v>0.02965752482546652</v>
+        <v>0.01189394534590296</v>
       </c>
       <c r="F13">
-        <v>-0.001301186069865474</v>
+        <v>-0.01468160269548828</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02895814079730174</v>
+        <v>-0.02174751478641342</v>
       </c>
       <c r="C14">
-        <v>0.02356705847605429</v>
+        <v>0.01479103295457034</v>
       </c>
       <c r="D14">
-        <v>-0.02354511660438953</v>
+        <v>0.0322509203527915</v>
       </c>
       <c r="E14">
-        <v>-0.0006267995744881892</v>
+        <v>-0.01872328114643812</v>
       </c>
       <c r="F14">
-        <v>-0.006680591315046097</v>
+        <v>-0.0199091143818859</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01747406333777062</v>
+        <v>-0.03219510835536715</v>
       </c>
       <c r="C15">
-        <v>0.0240077926976473</v>
+        <v>0.005647362600152401</v>
       </c>
       <c r="D15">
-        <v>0.06369494961522457</v>
+        <v>0.0450615336133247</v>
       </c>
       <c r="E15">
-        <v>0.01622568892107465</v>
+        <v>-0.009231846042965288</v>
       </c>
       <c r="F15">
-        <v>0.01510608018930455</v>
+        <v>-0.03123788802964927</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07893462960378864</v>
+        <v>-0.07495526419207342</v>
       </c>
       <c r="C16">
-        <v>0.07727255623344707</v>
+        <v>0.004507339800415675</v>
       </c>
       <c r="D16">
-        <v>-0.04010412874795567</v>
+        <v>0.1152187037989693</v>
       </c>
       <c r="E16">
-        <v>-0.0191165295025708</v>
+        <v>-0.06150101942171329</v>
       </c>
       <c r="F16">
-        <v>-0.01519325194944175</v>
+        <v>-0.03283695825369743</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02141223219275497</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003759842395981842</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02105013533060751</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01144421784047331</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.02292134710616804</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04133701744829277</v>
+        <v>-0.06142942416513378</v>
       </c>
       <c r="C20">
-        <v>0.02720038650774785</v>
+        <v>0.002182151612953741</v>
       </c>
       <c r="D20">
-        <v>0.02822403151886217</v>
+        <v>0.07205109687195922</v>
       </c>
       <c r="E20">
-        <v>0.01853493136251176</v>
+        <v>-0.05396668770022796</v>
       </c>
       <c r="F20">
-        <v>-0.01819204160023304</v>
+        <v>-0.0279514656755288</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02392810492355022</v>
+        <v>-0.03874201992504395</v>
       </c>
       <c r="C21">
-        <v>0.01890844339399255</v>
+        <v>0.007737681227629832</v>
       </c>
       <c r="D21">
-        <v>-0.01612679130863362</v>
+        <v>0.03558015781673363</v>
       </c>
       <c r="E21">
-        <v>-0.003382482326401324</v>
+        <v>0.009191041759680775</v>
       </c>
       <c r="F21">
-        <v>-0.01367995623047452</v>
+        <v>0.01998727783273027</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05652254672797833</v>
+        <v>-0.04280987489863337</v>
       </c>
       <c r="C22">
-        <v>0.034052560888788</v>
+        <v>0.0003121559993102941</v>
       </c>
       <c r="D22">
-        <v>0.6378117091396417</v>
+        <v>0.001730585978602802</v>
       </c>
       <c r="E22">
-        <v>0.09972404230240448</v>
+        <v>-0.02960028375698761</v>
       </c>
       <c r="F22">
-        <v>-0.1651419800072128</v>
+        <v>0.01260454157535683</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.05726725426745329</v>
+        <v>-0.04287538245689041</v>
       </c>
       <c r="C23">
-        <v>0.03609376393154196</v>
+        <v>0.0003384448450187151</v>
       </c>
       <c r="D23">
-        <v>0.6402465370177126</v>
+        <v>0.001917750349357614</v>
       </c>
       <c r="E23">
-        <v>0.09942251316340145</v>
+        <v>-0.02998524845490371</v>
       </c>
       <c r="F23">
-        <v>-0.1649591788123776</v>
+        <v>0.01207206588045354</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07912736590032804</v>
+        <v>-0.08142173575152888</v>
       </c>
       <c r="C24">
-        <v>0.07321779599428857</v>
+        <v>0.00475190346369852</v>
       </c>
       <c r="D24">
-        <v>-0.03511806522961538</v>
+        <v>0.1160234325213082</v>
       </c>
       <c r="E24">
-        <v>-0.001282924797738104</v>
+        <v>-0.04934794103017292</v>
       </c>
       <c r="F24">
-        <v>-0.02029374557518254</v>
+        <v>-0.02496478246633367</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.0786545827723473</v>
+        <v>-0.08576624895949046</v>
       </c>
       <c r="C25">
-        <v>0.06766022879949163</v>
+        <v>0.006686965374068747</v>
       </c>
       <c r="D25">
-        <v>-0.05096806806467327</v>
+        <v>0.1037954508944425</v>
       </c>
       <c r="E25">
-        <v>0.008756714715708214</v>
+        <v>-0.03220698928561735</v>
       </c>
       <c r="F25">
-        <v>-0.005298096872986355</v>
+        <v>-0.03266639444999963</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.03733620802835151</v>
+        <v>-0.05564111862301202</v>
       </c>
       <c r="C26">
-        <v>-0.001190766623110658</v>
+        <v>0.01560654843319503</v>
       </c>
       <c r="D26">
-        <v>0.01342940557275801</v>
+        <v>0.03356843626648828</v>
       </c>
       <c r="E26">
-        <v>-0.02318545012524002</v>
+        <v>-0.02559343956737032</v>
       </c>
       <c r="F26">
-        <v>-0.05770341772510189</v>
+        <v>0.007192804670971908</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.163535367106589</v>
+        <v>-0.1400418970426644</v>
       </c>
       <c r="C28">
-        <v>-0.2670030422175942</v>
+        <v>0.0136264933631449</v>
       </c>
       <c r="D28">
-        <v>0.001471771262492393</v>
+        <v>-0.2698746172983915</v>
       </c>
       <c r="E28">
-        <v>-0.06023837421594721</v>
+        <v>0.06674666039782882</v>
       </c>
       <c r="F28">
-        <v>-0.02082588087185676</v>
+        <v>-0.03343214320427634</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02841920614860306</v>
+        <v>-0.02704933231090701</v>
       </c>
       <c r="C29">
-        <v>0.02291189446022412</v>
+        <v>0.009152373160996844</v>
       </c>
       <c r="D29">
-        <v>-0.02645036474927471</v>
+        <v>0.03072915395773651</v>
       </c>
       <c r="E29">
-        <v>0.02597025525542842</v>
+        <v>-0.01140489017460048</v>
       </c>
       <c r="F29">
-        <v>-0.02550134595015483</v>
+        <v>0.01054433679417021</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.09832522098626581</v>
+        <v>-0.06458718957207497</v>
       </c>
       <c r="C30">
-        <v>0.07520637991478694</v>
+        <v>0.006409704336590484</v>
       </c>
       <c r="D30">
-        <v>-0.02567473858453586</v>
+        <v>0.08052224616579855</v>
       </c>
       <c r="E30">
-        <v>-0.06925749709779741</v>
+        <v>-0.02382502388103885</v>
       </c>
       <c r="F30">
-        <v>-0.2283405959188886</v>
+        <v>-0.1137359984399865</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03141591436737346</v>
+        <v>-0.04876500162765792</v>
       </c>
       <c r="C31">
-        <v>0.05931836056414123</v>
+        <v>0.01518941786519227</v>
       </c>
       <c r="D31">
-        <v>-0.003176573151019398</v>
+        <v>0.02913251364701656</v>
       </c>
       <c r="E31">
-        <v>0.02065466750734655</v>
+        <v>-0.02759300280498923</v>
       </c>
       <c r="F31">
-        <v>0.01179206394778924</v>
+        <v>0.002648465909356963</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04982370689239075</v>
+        <v>-0.04842408904340055</v>
       </c>
       <c r="C32">
-        <v>0.01865921010331086</v>
+        <v>0.0003510211585897827</v>
       </c>
       <c r="D32">
-        <v>-0.0558106376673505</v>
+        <v>0.02954547813755</v>
       </c>
       <c r="E32">
-        <v>-0.07726194647262512</v>
+        <v>-0.02876673278717364</v>
       </c>
       <c r="F32">
-        <v>0.04598142090366625</v>
+        <v>-0.00115314507551827</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08412545232585751</v>
+        <v>-0.0904941305694785</v>
       </c>
       <c r="C33">
-        <v>0.05983402980280451</v>
+        <v>0.00983799059744613</v>
       </c>
       <c r="D33">
-        <v>-0.03462925853033402</v>
+        <v>0.09176508697603052</v>
       </c>
       <c r="E33">
-        <v>-0.0004487874836077218</v>
+        <v>-0.04587139515253495</v>
       </c>
       <c r="F33">
-        <v>-0.02284756971910152</v>
+        <v>-0.0395294040419661</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06862528401295097</v>
+        <v>-0.0690647361103109</v>
       </c>
       <c r="C34">
-        <v>0.05992312927221585</v>
+        <v>0.01285438048693334</v>
       </c>
       <c r="D34">
-        <v>-0.0397504798769753</v>
+        <v>0.09677054128907103</v>
       </c>
       <c r="E34">
-        <v>-0.004732610592576579</v>
+        <v>-0.03425020665525644</v>
       </c>
       <c r="F34">
-        <v>-0.008431437776418329</v>
+        <v>-0.04707016773713074</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01200017976982134</v>
+        <v>-0.02431172018854889</v>
       </c>
       <c r="C35">
-        <v>0.008315515927228411</v>
+        <v>0.002676098220002328</v>
       </c>
       <c r="D35">
-        <v>-2.96902641515707e-05</v>
+        <v>0.0104600759056041</v>
       </c>
       <c r="E35">
-        <v>0.01029817972212706</v>
+        <v>-0.01113548461073775</v>
       </c>
       <c r="F35">
-        <v>-0.008373995148660668</v>
+        <v>-0.01128356546993913</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.0222233522397471</v>
+        <v>-0.02491353478489296</v>
       </c>
       <c r="C36">
-        <v>0.01345336065079536</v>
+        <v>0.007234258936579855</v>
       </c>
       <c r="D36">
-        <v>0.01105529418273085</v>
+        <v>0.03753499714689991</v>
       </c>
       <c r="E36">
-        <v>-0.00507964085115924</v>
+        <v>-0.01683734395767426</v>
       </c>
       <c r="F36">
-        <v>-0.02472688375942102</v>
+        <v>-0.007581359234640743</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.01515020498720617</v>
+        <v>-0.002260945405331249</v>
       </c>
       <c r="C38">
-        <v>0.03011307220843439</v>
+        <v>0.0003936979613325691</v>
       </c>
       <c r="D38">
-        <v>0.02036012375217622</v>
+        <v>0.001983376339828944</v>
       </c>
       <c r="E38">
-        <v>0.03520445982065739</v>
+        <v>-0.002608351080212692</v>
       </c>
       <c r="F38">
-        <v>-0.06122351335701188</v>
+        <v>0.001588576389874906</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1094805002985162</v>
+        <v>-0.1102457963105221</v>
       </c>
       <c r="C39">
-        <v>0.09982534712891916</v>
+        <v>0.01839019077275262</v>
       </c>
       <c r="D39">
-        <v>-0.1383901729661465</v>
+        <v>0.1490372284211062</v>
       </c>
       <c r="E39">
-        <v>-0.02460242583787643</v>
+        <v>-0.05752024105993818</v>
       </c>
       <c r="F39">
-        <v>-0.1066721696530183</v>
+        <v>-0.03354755117811731</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02609479801181212</v>
+        <v>-0.0375352268618721</v>
       </c>
       <c r="C40">
-        <v>0.06453753156736301</v>
+        <v>0.007593031694957225</v>
       </c>
       <c r="D40">
-        <v>0.02548877114902518</v>
+        <v>0.03071231360039158</v>
       </c>
       <c r="E40">
-        <v>0.06141998615009654</v>
+        <v>-0.00447633348096811</v>
       </c>
       <c r="F40">
-        <v>-0.002700436681020993</v>
+        <v>0.02150364318083479</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.0335419517130597</v>
+        <v>-0.02653851895878095</v>
       </c>
       <c r="C41">
-        <v>0.02204495543006665</v>
+        <v>0.00694294689041075</v>
       </c>
       <c r="D41">
-        <v>-0.02153572405946532</v>
+        <v>0.01066052547942982</v>
       </c>
       <c r="E41">
-        <v>0.01795262241032528</v>
+        <v>-0.01207208769690248</v>
       </c>
       <c r="F41">
-        <v>-0.009678741209622435</v>
+        <v>0.01057658565592557</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04228402418034179</v>
+        <v>-0.04214540240828198</v>
       </c>
       <c r="C43">
-        <v>0.03024826004387001</v>
+        <v>0.007155038232405794</v>
       </c>
       <c r="D43">
-        <v>0.005218383552917239</v>
+        <v>0.02078072482349002</v>
       </c>
       <c r="E43">
-        <v>0.007934260777626352</v>
+        <v>-0.02564853267622472</v>
       </c>
       <c r="F43">
-        <v>-0.02883064988924539</v>
+        <v>0.01121049880990916</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1025732696583355</v>
+        <v>-0.07308681744887277</v>
       </c>
       <c r="C44">
-        <v>0.1158309289186417</v>
+        <v>0.02252614327962302</v>
       </c>
       <c r="D44">
-        <v>0.07787116913773034</v>
+        <v>0.09919497940561312</v>
       </c>
       <c r="E44">
-        <v>0.0397159170695384</v>
+        <v>-0.06832075677539227</v>
       </c>
       <c r="F44">
-        <v>-0.04029677436299991</v>
+        <v>-0.1711158334898097</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02287465324242472</v>
+        <v>-0.02265566799239202</v>
       </c>
       <c r="C46">
-        <v>0.0001937848340538596</v>
+        <v>0.004085649419972552</v>
       </c>
       <c r="D46">
-        <v>0.02444908814997803</v>
+        <v>0.01138365196702128</v>
       </c>
       <c r="E46">
-        <v>0.03153519838961363</v>
+        <v>-0.0233456830185844</v>
       </c>
       <c r="F46">
-        <v>-0.05061635051659937</v>
+        <v>0.001773796270896701</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.04122360288401165</v>
+        <v>-0.05248096356926225</v>
       </c>
       <c r="C47">
-        <v>0.03020259279417253</v>
+        <v>0.003399891372426648</v>
       </c>
       <c r="D47">
-        <v>-0.002069413818702116</v>
+        <v>0.01226105155792881</v>
       </c>
       <c r="E47">
-        <v>0.0140824165730731</v>
+        <v>-0.02147506785570373</v>
       </c>
       <c r="F47">
-        <v>-0.006279898225172948</v>
+        <v>0.04497284207957882</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04225965984950678</v>
+        <v>-0.0477061152384664</v>
       </c>
       <c r="C48">
-        <v>0.01629625648416082</v>
+        <v>0.003273523637330348</v>
       </c>
       <c r="D48">
-        <v>-0.0137069675295923</v>
+        <v>0.04630741112137758</v>
       </c>
       <c r="E48">
-        <v>0.01618836354701139</v>
+        <v>0.00562463505355709</v>
       </c>
       <c r="F48">
-        <v>0.003030387755389912</v>
+        <v>-0.01306449309724969</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2197997258003053</v>
+        <v>-0.2028619854716708</v>
       </c>
       <c r="C49">
-        <v>0.005788706231429178</v>
+        <v>0.01708111840321712</v>
       </c>
       <c r="D49">
-        <v>-0.04164816999156573</v>
+        <v>-0.009376751353006512</v>
       </c>
       <c r="E49">
-        <v>0.09860312362762853</v>
+        <v>-0.03760098046833004</v>
       </c>
       <c r="F49">
-        <v>0.03097538624308818</v>
+        <v>-0.03064252495959987</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.0396890928833661</v>
+        <v>-0.0485942923180382</v>
       </c>
       <c r="C50">
-        <v>0.0315129063617544</v>
+        <v>0.01117972181083024</v>
       </c>
       <c r="D50">
-        <v>-0.01902349667762316</v>
+        <v>0.02590322607835267</v>
       </c>
       <c r="E50">
-        <v>0.002223272961018827</v>
+        <v>-0.02880897710296188</v>
       </c>
       <c r="F50">
-        <v>-0.03571643847263236</v>
+        <v>-0.007573262270542269</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.02333204426935851</v>
+        <v>-0.003137270719359101</v>
       </c>
       <c r="C51">
-        <v>-0.009706141630929395</v>
+        <v>0.0007782203885541942</v>
       </c>
       <c r="D51">
-        <v>0.002679051741107567</v>
+        <v>-0.002349177511801935</v>
       </c>
       <c r="E51">
-        <v>0.01747125425729092</v>
+        <v>-0.0005958219099267331</v>
       </c>
       <c r="F51">
-        <v>0.03147379151065754</v>
+        <v>-0.005422755454250288</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.0716333514790975</v>
+        <v>-0.1442772879931591</v>
       </c>
       <c r="C52">
-        <v>0.06678614168562146</v>
+        <v>0.0132016969647807</v>
       </c>
       <c r="D52">
-        <v>-0.02239037516505383</v>
+        <v>0.05072841700552106</v>
       </c>
       <c r="E52">
-        <v>-0.0007141402693040811</v>
+        <v>-0.0205807097991165</v>
       </c>
       <c r="F52">
-        <v>-0.04535976427790612</v>
+        <v>-0.03653408456924647</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1566462233085903</v>
+        <v>-0.1734241583685676</v>
       </c>
       <c r="C53">
-        <v>0.06879984795163849</v>
+        <v>0.01599342840657526</v>
       </c>
       <c r="D53">
-        <v>0.01147372225049914</v>
+        <v>0.01425662433956887</v>
       </c>
       <c r="E53">
-        <v>0.04181966955868737</v>
+        <v>-0.03620882190977243</v>
       </c>
       <c r="F53">
-        <v>-0.05478980183102535</v>
+        <v>-0.06978782727249251</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05632340688017898</v>
+        <v>-0.02270746222261071</v>
       </c>
       <c r="C54">
-        <v>0.06836539726457451</v>
+        <v>0.01271653551707339</v>
       </c>
       <c r="D54">
-        <v>-0.00247638864237421</v>
+        <v>0.03330096067341687</v>
       </c>
       <c r="E54">
-        <v>0.01198933426210042</v>
+        <v>-0.01511280741920401</v>
       </c>
       <c r="F54">
-        <v>0.02578713425521634</v>
+        <v>0.004296439309805848</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08337450455242175</v>
+        <v>-0.1145612320246028</v>
       </c>
       <c r="C55">
-        <v>0.05536491348133744</v>
+        <v>0.01469531370919051</v>
       </c>
       <c r="D55">
-        <v>-0.03340718899178746</v>
+        <v>0.01301206153644557</v>
       </c>
       <c r="E55">
-        <v>0.02014347729745474</v>
+        <v>-0.03051120114434431</v>
       </c>
       <c r="F55">
-        <v>-0.01461324343153467</v>
+        <v>-0.0519911990811173</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1442174476358668</v>
+        <v>-0.1775521631622271</v>
       </c>
       <c r="C56">
-        <v>0.08431807163366344</v>
+        <v>0.01346672703148815</v>
       </c>
       <c r="D56">
-        <v>-0.0304361031466436</v>
+        <v>0.00848137538543095</v>
       </c>
       <c r="E56">
-        <v>0.07077675389512064</v>
+        <v>-0.04014988445594107</v>
       </c>
       <c r="F56">
-        <v>-0.04160059280204306</v>
+        <v>-0.04100192482276775</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04952558994712136</v>
+        <v>-0.046981723430661</v>
       </c>
       <c r="C58">
-        <v>0.04142643367107368</v>
+        <v>0.003003448938499472</v>
       </c>
       <c r="D58">
-        <v>0.03765965306466913</v>
+        <v>0.06394878498520981</v>
       </c>
       <c r="E58">
-        <v>0.02274491213571054</v>
+        <v>-0.02158522012519836</v>
       </c>
       <c r="F58">
-        <v>-0.02658789627395179</v>
+        <v>0.04976161955526939</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2186636395554029</v>
+        <v>-0.1709384464230623</v>
       </c>
       <c r="C59">
-        <v>-0.2327741393555351</v>
+        <v>0.01522674915189577</v>
       </c>
       <c r="D59">
-        <v>-0.04004357691188544</v>
+        <v>-0.228496233089451</v>
       </c>
       <c r="E59">
-        <v>-0.01247089897663849</v>
+        <v>0.04835951107798271</v>
       </c>
       <c r="F59">
-        <v>0.08167740230863003</v>
+        <v>0.03433062683073393</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2227263320644932</v>
+        <v>-0.2379568910659397</v>
       </c>
       <c r="C60">
-        <v>0.120705243388369</v>
+        <v>-0.004205027302988226</v>
       </c>
       <c r="D60">
-        <v>-0.08524689043224871</v>
+        <v>0.04985159869817139</v>
       </c>
       <c r="E60">
-        <v>0.1272116778624169</v>
+        <v>-0.00860308256480009</v>
       </c>
       <c r="F60">
-        <v>0.003177978896253355</v>
+        <v>0.03583782027485762</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1088479383150247</v>
+        <v>-0.08516895148487449</v>
       </c>
       <c r="C61">
-        <v>0.0731559904071572</v>
+        <v>0.01437209903989278</v>
       </c>
       <c r="D61">
-        <v>-0.08252806446916752</v>
+        <v>0.1095551201226917</v>
       </c>
       <c r="E61">
-        <v>0.01514630438593266</v>
+        <v>-0.03955259393827629</v>
       </c>
       <c r="F61">
-        <v>-0.06168704744795223</v>
+        <v>-0.01872117776473772</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1405673314462596</v>
+        <v>-0.1700449274398113</v>
       </c>
       <c r="C62">
-        <v>0.0711544091414965</v>
+        <v>0.01737449913542014</v>
       </c>
       <c r="D62">
-        <v>-0.002411373585623829</v>
+        <v>0.01251362116930188</v>
       </c>
       <c r="E62">
-        <v>0.0550287747665836</v>
+        <v>-0.03747187145296968</v>
       </c>
       <c r="F62">
-        <v>-0.03975086603769065</v>
+        <v>-0.02206042440711331</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.0462628202506521</v>
+        <v>-0.04265474032415439</v>
       </c>
       <c r="C63">
-        <v>0.02885420708219861</v>
+        <v>0.003993850837343901</v>
       </c>
       <c r="D63">
-        <v>-0.009259054216012818</v>
+        <v>0.04857998620313008</v>
       </c>
       <c r="E63">
-        <v>-0.02732654230606098</v>
+        <v>-0.01965855421019498</v>
       </c>
       <c r="F63">
-        <v>-0.01104428130890114</v>
+        <v>-0.009769943778474895</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09119526938232698</v>
+        <v>-0.1125984423888708</v>
       </c>
       <c r="C64">
-        <v>0.05282332480624816</v>
+        <v>0.01200490586987318</v>
       </c>
       <c r="D64">
-        <v>-0.009875016534003855</v>
+        <v>0.04099939829353524</v>
       </c>
       <c r="E64">
-        <v>0.06581236514253637</v>
+        <v>-0.02048087587569362</v>
       </c>
       <c r="F64">
-        <v>-0.05808732669741273</v>
+        <v>-0.01939542390451965</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1203356196645324</v>
+        <v>-0.1439402845217418</v>
       </c>
       <c r="C65">
-        <v>0.05323312299868176</v>
+        <v>0.0312036363142641</v>
       </c>
       <c r="D65">
-        <v>-0.01838153599240058</v>
+        <v>-0.04481255632741399</v>
       </c>
       <c r="E65">
-        <v>-0.04826644280851131</v>
+        <v>-0.0006750681326643219</v>
       </c>
       <c r="F65">
-        <v>-0.031274195057775</v>
+        <v>-0.04293379758323029</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1219297119923657</v>
+        <v>-0.1318280744889095</v>
       </c>
       <c r="C66">
-        <v>0.1197007079368002</v>
+        <v>0.01586781419011623</v>
       </c>
       <c r="D66">
-        <v>-0.1308111699881926</v>
+        <v>0.1365580300547865</v>
       </c>
       <c r="E66">
-        <v>-0.00514570045590928</v>
+        <v>-0.0643471104496323</v>
       </c>
       <c r="F66">
-        <v>-0.1389064816276681</v>
+        <v>-0.03875092161982907</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0629787729112908</v>
+        <v>-0.06340276156297303</v>
       </c>
       <c r="C67">
-        <v>0.03760402976040628</v>
+        <v>0.003713161183721633</v>
       </c>
       <c r="D67">
-        <v>0.03467551828398901</v>
+        <v>0.05492139636719957</v>
       </c>
       <c r="E67">
-        <v>0.01633654295957744</v>
+        <v>-0.01983447480830783</v>
       </c>
       <c r="F67">
-        <v>-0.05093050965793805</v>
+        <v>0.04157657267003467</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1379108197250463</v>
+        <v>-0.1143258069590142</v>
       </c>
       <c r="C68">
-        <v>-0.2414240938360215</v>
+        <v>0.02465730008025874</v>
       </c>
       <c r="D68">
-        <v>-0.0115253385273683</v>
+        <v>-0.266718388279777</v>
       </c>
       <c r="E68">
-        <v>-0.06301352465778397</v>
+        <v>0.08503014104611267</v>
       </c>
       <c r="F68">
-        <v>-0.001660419571624269</v>
+        <v>-0.04041488399020404</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03912695946020383</v>
+        <v>-0.03978818570846322</v>
       </c>
       <c r="C69">
-        <v>-0.00861348158722443</v>
+        <v>0.001138017069568381</v>
       </c>
       <c r="D69">
-        <v>-0.0003779858168442373</v>
+        <v>0.009004615136854188</v>
       </c>
       <c r="E69">
-        <v>0.006205715133243716</v>
+        <v>-0.02400408244116</v>
       </c>
       <c r="F69">
-        <v>-0.03891048068287182</v>
+        <v>0.01359603831937136</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03959192579562421</v>
+        <v>-0.06410671901206727</v>
       </c>
       <c r="C70">
-        <v>0.01327444366455605</v>
+        <v>-0.02759371457757661</v>
       </c>
       <c r="D70">
-        <v>-0.03950754759292021</v>
+        <v>0.02570691584700155</v>
       </c>
       <c r="E70">
-        <v>0.02000857423400227</v>
+        <v>0.04885629892746647</v>
       </c>
       <c r="F70">
-        <v>-0.05582918211835423</v>
+        <v>0.3057478261657736</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1554651962237161</v>
+        <v>-0.1331374893615605</v>
       </c>
       <c r="C71">
-        <v>-0.2627654507721572</v>
+        <v>0.02879040928877443</v>
       </c>
       <c r="D71">
-        <v>-0.003485710811391274</v>
+        <v>-0.2826328427433476</v>
       </c>
       <c r="E71">
-        <v>-0.03101671022125683</v>
+        <v>0.09289380630726997</v>
       </c>
       <c r="F71">
-        <v>-0.05905646779080776</v>
+        <v>-0.04302115403576155</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1398676131367042</v>
+        <v>-0.1384620596738923</v>
       </c>
       <c r="C72">
-        <v>0.03086226063394113</v>
+        <v>0.02433444023608379</v>
       </c>
       <c r="D72">
-        <v>-0.004848583559782673</v>
+        <v>0.004729761683259942</v>
       </c>
       <c r="E72">
-        <v>0.01037208355034295</v>
+        <v>-0.04327598098996268</v>
       </c>
       <c r="F72">
-        <v>-0.0427922021847564</v>
+        <v>-0.023527734734803</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2130293703870945</v>
+        <v>-0.2059882044994249</v>
       </c>
       <c r="C73">
-        <v>0.03955567564820499</v>
+        <v>0.01159378070112798</v>
       </c>
       <c r="D73">
-        <v>-0.1275127711775229</v>
+        <v>0.01586691154406506</v>
       </c>
       <c r="E73">
-        <v>0.1529737860486492</v>
+        <v>-0.06384505523828356</v>
       </c>
       <c r="F73">
-        <v>-0.03418271883315104</v>
+        <v>-0.02998146789720178</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1060240848322582</v>
+        <v>-0.09406261192009106</v>
       </c>
       <c r="C74">
-        <v>0.09008216610093249</v>
+        <v>0.01195802347076597</v>
       </c>
       <c r="D74">
-        <v>-0.0126614102212124</v>
+        <v>0.02379958064814741</v>
       </c>
       <c r="E74">
-        <v>0.0177576111274169</v>
+        <v>-0.04907846083490685</v>
       </c>
       <c r="F74">
-        <v>-0.07439144858799894</v>
+        <v>-0.04338598068878458</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.09829893924598632</v>
+        <v>-0.1299130072671031</v>
       </c>
       <c r="C75">
-        <v>0.06754813703358287</v>
+        <v>0.02626384829895601</v>
       </c>
       <c r="D75">
-        <v>-0.008386074971735656</v>
+        <v>0.03415258258141295</v>
       </c>
       <c r="E75">
-        <v>0.01791596297334445</v>
+        <v>-0.05972845936365043</v>
       </c>
       <c r="F75">
-        <v>0.02520182581643094</v>
+        <v>-0.01453671978958542</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.03931888046925481</v>
+        <v>-0.005424556154523842</v>
       </c>
       <c r="C76">
-        <v>0.0185826555311808</v>
+        <v>0.001236808601516289</v>
       </c>
       <c r="D76">
-        <v>-0.005549628260395113</v>
+        <v>-0.0003365383181753495</v>
       </c>
       <c r="E76">
-        <v>0.03492120575025325</v>
+        <v>-0.00379556401086316</v>
       </c>
       <c r="F76">
-        <v>0.01276891912953654</v>
+        <v>-0.004582263140045053</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.0672150769752717</v>
+        <v>-0.07952426005600513</v>
       </c>
       <c r="C77">
-        <v>0.03443054688231018</v>
+        <v>0.01048368568622112</v>
       </c>
       <c r="D77">
-        <v>-0.03084056742583563</v>
+        <v>0.1090334981026509</v>
       </c>
       <c r="E77">
-        <v>0.03716593674199001</v>
+        <v>-0.03605110981638181</v>
       </c>
       <c r="F77">
-        <v>-0.005288455526840094</v>
+        <v>-0.03016881217630816</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1329833965863754</v>
+        <v>-0.1071239376785428</v>
       </c>
       <c r="C78">
-        <v>0.124221529842373</v>
+        <v>0.04218455501806573</v>
       </c>
       <c r="D78">
-        <v>0.1871842724840744</v>
+        <v>0.1178310601005582</v>
       </c>
       <c r="E78">
-        <v>-0.0576271660368796</v>
+        <v>-0.08706353241143049</v>
       </c>
       <c r="F78">
-        <v>0.840394475794712</v>
+        <v>-0.07059673429266339</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1317192710976891</v>
+        <v>-0.1637746080158731</v>
       </c>
       <c r="C79">
-        <v>0.08531104892668379</v>
+        <v>0.02026911279317542</v>
       </c>
       <c r="D79">
-        <v>0.004388610200465152</v>
+        <v>0.02018290363124315</v>
       </c>
       <c r="E79">
-        <v>0.05199753713775356</v>
+        <v>-0.04733129865858519</v>
       </c>
       <c r="F79">
-        <v>-0.03487799517947626</v>
+        <v>-0.013015380249984</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07142768049644913</v>
+        <v>-0.08045787868810102</v>
       </c>
       <c r="C80">
-        <v>0.05583191587474723</v>
+        <v>-0.0004697709732749342</v>
       </c>
       <c r="D80">
-        <v>-0.07923567589582825</v>
+        <v>0.05648309482695753</v>
       </c>
       <c r="E80">
-        <v>-0.005952949138329834</v>
+        <v>-0.03323455090577256</v>
       </c>
       <c r="F80">
-        <v>0.004105291298953386</v>
+        <v>0.01753445217949503</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1299399607249276</v>
+        <v>-0.1234727035273708</v>
       </c>
       <c r="C81">
-        <v>0.08842920427675122</v>
+        <v>0.03021925374938335</v>
       </c>
       <c r="D81">
-        <v>0.001024775377316625</v>
+        <v>0.01985150369484286</v>
       </c>
       <c r="E81">
-        <v>0.04672558085321151</v>
+        <v>-0.05966030278154539</v>
       </c>
       <c r="F81">
-        <v>-0.01177947928431894</v>
+        <v>-0.004771728025995236</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1329406648501783</v>
+        <v>-0.1632288398988834</v>
       </c>
       <c r="C82">
-        <v>0.06512730675213628</v>
+        <v>0.02081240660732614</v>
       </c>
       <c r="D82">
-        <v>-0.0183500254172295</v>
+        <v>0.0173447044929021</v>
       </c>
       <c r="E82">
-        <v>0.0238238178954844</v>
+        <v>-0.03440962435946474</v>
       </c>
       <c r="F82">
-        <v>-0.05028974632642</v>
+        <v>-0.06293722735427683</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08624548966535857</v>
+        <v>-0.0651889333547858</v>
       </c>
       <c r="C83">
-        <v>0.1640364344270996</v>
+        <v>0.003962522003448267</v>
       </c>
       <c r="D83">
-        <v>-0.01538290563170695</v>
+        <v>0.04897446726032532</v>
       </c>
       <c r="E83">
-        <v>0.006235851134821945</v>
+        <v>-0.005892577546278407</v>
       </c>
       <c r="F83">
-        <v>-0.0003781491835601987</v>
+        <v>0.04228616803535887</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05919598164399966</v>
+        <v>-0.05932833667924438</v>
       </c>
       <c r="C84">
-        <v>-0.1035500216575833</v>
+        <v>0.01141329420013261</v>
       </c>
       <c r="D84">
-        <v>-0.04162660916492799</v>
+        <v>0.06068899414592943</v>
       </c>
       <c r="E84">
-        <v>0.01183488880026859</v>
+        <v>0.001328772084560554</v>
       </c>
       <c r="F84">
-        <v>0.1033240217833305</v>
+        <v>-0.01170775542708518</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1169287286722024</v>
+        <v>-0.1383597676011075</v>
       </c>
       <c r="C85">
-        <v>0.05327326134637382</v>
+        <v>0.02569728784070884</v>
       </c>
       <c r="D85">
-        <v>-0.008970844572675772</v>
+        <v>0.01534284703887834</v>
       </c>
       <c r="E85">
-        <v>0.06893038210510061</v>
+        <v>-0.04049014656055915</v>
       </c>
       <c r="F85">
-        <v>-0.04196568780291456</v>
+        <v>-0.04693910264479411</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09009905079759341</v>
+        <v>-0.0976654559332794</v>
       </c>
       <c r="C86">
-        <v>0.02050612258320914</v>
+        <v>-0.00687718401211385</v>
       </c>
       <c r="D86">
-        <v>0.00801518406152614</v>
+        <v>0.02335473819701477</v>
       </c>
       <c r="E86">
-        <v>0.1691383644159392</v>
+        <v>-0.136981879419632</v>
       </c>
       <c r="F86">
-        <v>0.2048042215990424</v>
+        <v>0.852402926343174</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1195490006396247</v>
+        <v>-0.09920719326098737</v>
       </c>
       <c r="C87">
-        <v>0.1390582935873358</v>
+        <v>0.02518265578005606</v>
       </c>
       <c r="D87">
-        <v>0.005351529401269104</v>
+        <v>0.07726064895149845</v>
       </c>
       <c r="E87">
-        <v>0.07220736125191698</v>
+        <v>0.05095237679547392</v>
       </c>
       <c r="F87">
-        <v>0.005319590132459806</v>
+        <v>-0.07933270699031073</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05176032537083854</v>
+        <v>-0.06218115740861331</v>
       </c>
       <c r="C88">
-        <v>0.05493901344975116</v>
+        <v>0.003323629647700349</v>
       </c>
       <c r="D88">
-        <v>-0.04457833364637533</v>
+        <v>0.05331819817268363</v>
       </c>
       <c r="E88">
-        <v>0.02858991742478572</v>
+        <v>-0.02721460482030848</v>
       </c>
       <c r="F88">
-        <v>-0.04165205850561003</v>
+        <v>-0.00957463320503287</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2228629654834251</v>
+        <v>-0.1338922273419136</v>
       </c>
       <c r="C89">
-        <v>-0.3593744427667325</v>
+        <v>0.007080681376889308</v>
       </c>
       <c r="D89">
-        <v>0.06419658850117976</v>
+        <v>-0.2628965540153667</v>
       </c>
       <c r="E89">
-        <v>-0.01610312889647887</v>
+        <v>0.090730875831118</v>
       </c>
       <c r="F89">
-        <v>0.02465479098621287</v>
+        <v>-0.02513805061909942</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1690779343064003</v>
+        <v>-0.144897078164557</v>
       </c>
       <c r="C90">
-        <v>-0.2508655010891456</v>
+        <v>0.02438847351916297</v>
       </c>
       <c r="D90">
-        <v>-0.0008118641522930119</v>
+        <v>-0.2707426206406136</v>
       </c>
       <c r="E90">
-        <v>-0.01824640411322805</v>
+        <v>0.1059001484967039</v>
       </c>
       <c r="F90">
-        <v>-0.04766381696017376</v>
+        <v>-0.02560535509156298</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07654350239375056</v>
+        <v>-0.1180864031584425</v>
       </c>
       <c r="C91">
-        <v>0.05988982017914868</v>
+        <v>0.01649655824544981</v>
       </c>
       <c r="D91">
-        <v>-0.01187057042905774</v>
+        <v>-0.005384803821657346</v>
       </c>
       <c r="E91">
-        <v>0.04413049765069657</v>
+        <v>-0.05697035463778353</v>
       </c>
       <c r="F91">
-        <v>-0.002872292076302501</v>
+        <v>0.01937217220161939</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1885312699486172</v>
+        <v>-0.148162683551559</v>
       </c>
       <c r="C92">
-        <v>-0.294053525363614</v>
+        <v>0.0161478497190493</v>
       </c>
       <c r="D92">
-        <v>0.03503704566418425</v>
+        <v>-0.302037569675559</v>
       </c>
       <c r="E92">
-        <v>-0.03806136009498621</v>
+        <v>0.1014799302535556</v>
       </c>
       <c r="F92">
-        <v>0.008622595235317268</v>
+        <v>-0.02248077550603455</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1728006488797354</v>
+        <v>-0.1487705389293505</v>
       </c>
       <c r="C93">
-        <v>-0.3034877692411811</v>
+        <v>0.02081816670514068</v>
       </c>
       <c r="D93">
-        <v>-0.03634708473288727</v>
+        <v>-0.2725597964331625</v>
       </c>
       <c r="E93">
-        <v>-0.02573102015826045</v>
+        <v>0.07218193990217381</v>
       </c>
       <c r="F93">
-        <v>-0.04027310231406866</v>
+        <v>-0.01953877713507086</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1260529516823657</v>
+        <v>-0.1335766841493303</v>
       </c>
       <c r="C94">
-        <v>0.07485092345053379</v>
+        <v>0.02371544671339742</v>
       </c>
       <c r="D94">
-        <v>0.004447650704862691</v>
+        <v>0.04723457813855293</v>
       </c>
       <c r="E94">
-        <v>0.03817515862128901</v>
+        <v>-0.0611947845147754</v>
       </c>
       <c r="F94">
-        <v>-0.01135479108938891</v>
+        <v>-0.03244886639691461</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1163044709879628</v>
+        <v>-0.1261140261685888</v>
       </c>
       <c r="C95">
-        <v>0.05814436163391714</v>
+        <v>0.005619773453235815</v>
       </c>
       <c r="D95">
-        <v>0.01697879432582134</v>
+        <v>0.09079885252848729</v>
       </c>
       <c r="E95">
-        <v>0.03775900714960699</v>
+        <v>-0.04436389995041496</v>
       </c>
       <c r="F95">
-        <v>0.07472731628208229</v>
+        <v>0.0138744986427555</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.004023924212789349</v>
+        <v>-0.09760618409364949</v>
       </c>
       <c r="C96">
-        <v>0.009673679468034602</v>
+        <v>-0.9890551512420285</v>
       </c>
       <c r="D96">
-        <v>0.001564902005627889</v>
+        <v>-0.02454665324805631</v>
       </c>
       <c r="E96">
-        <v>0.004624464796427434</v>
+        <v>-0.05920246054451578</v>
       </c>
       <c r="F96">
-        <v>0.0221817833837159</v>
+        <v>-0.04806721659214857</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1712081522286184</v>
+        <v>-0.1869806533250142</v>
       </c>
       <c r="C97">
-        <v>0.1749065479762556</v>
+        <v>-0.01163744494086776</v>
       </c>
       <c r="D97">
-        <v>0.1064734878633598</v>
+        <v>-0.00957963401465642</v>
       </c>
       <c r="E97">
-        <v>-0.8923746623449984</v>
+        <v>-0.01535514156236269</v>
       </c>
       <c r="F97">
-        <v>-0.05016022590410801</v>
+        <v>0.1779688490367416</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2252400733572156</v>
+        <v>-0.2047913414924341</v>
       </c>
       <c r="C98">
-        <v>0.06220704377414623</v>
+        <v>0.006873762527469772</v>
       </c>
       <c r="D98">
-        <v>0.0811267622482484</v>
+        <v>0.01412899306602796</v>
       </c>
       <c r="E98">
-        <v>0.02357750286223945</v>
+        <v>0.0933971671372425</v>
       </c>
       <c r="F98">
-        <v>0.1068078481318376</v>
+        <v>0.1270386788304312</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05933558446911827</v>
+        <v>-0.05731362762731965</v>
       </c>
       <c r="C99">
-        <v>0.02267160762193633</v>
+        <v>-0.003385133615810249</v>
       </c>
       <c r="D99">
-        <v>0.003797582286042099</v>
+        <v>0.03495903866007254</v>
       </c>
       <c r="E99">
-        <v>0.02666325202461872</v>
+        <v>-0.02627034394856265</v>
       </c>
       <c r="F99">
-        <v>0.01285348982437064</v>
+        <v>-0.004346302528848314</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.002398684534010871</v>
+        <v>-0.1242571071027394</v>
       </c>
       <c r="C100">
-        <v>-0.0003895362213905387</v>
+        <v>-0.04921870668490658</v>
       </c>
       <c r="D100">
-        <v>0.005052907553407208</v>
+        <v>0.3363301421492872</v>
       </c>
       <c r="E100">
-        <v>-0.1270753709359515</v>
+        <v>0.9011375378218395</v>
       </c>
       <c r="F100">
-        <v>-0.03842731828557613</v>
+        <v>0.05700495493483947</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02795288578518185</v>
+        <v>-0.02698483512411908</v>
       </c>
       <c r="C101">
-        <v>0.02297405490293837</v>
+        <v>0.009155250550834357</v>
       </c>
       <c r="D101">
-        <v>-0.02746656797561212</v>
+        <v>0.03047043317003944</v>
       </c>
       <c r="E101">
-        <v>0.02639329622825112</v>
+        <v>-0.01094437305520379</v>
       </c>
       <c r="F101">
-        <v>-0.02331717171586434</v>
+        <v>0.01259684401349077</v>
       </c>
     </row>
     <row r="102" spans="1:6">
